--- a/agricultura/componente_ambiental_agua.xlsx
+++ b/agricultura/componente_ambiental_agua.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLIMAC\Documents\gorelambayeque\datasets-lambayeque\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7A6619-BB25-4901-B3D5-B8989ECE6B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF7DD2-66CF-4732-A2E5-5624000BD59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23970" yWindow="2205" windowWidth="26025" windowHeight="17190" xr2:uid="{F992B2F8-3A81-405D-A135-96D59C6A8C70}"/>
   </bookViews>
   <sheets>
     <sheet name="componente_ambiental_agua" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">componente_ambiental_agua!$A$1:$T$999</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2411,17 +2414,23 @@
   <dimension ref="A1:T999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -64363,6 +64372,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T999" xr:uid="{D2E6C175-C8E6-4CCD-AEB0-927D7B62E43C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>